--- a/Code/Results/Cases/Case_8_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.373955530010278</v>
+        <v>3.385525943199127</v>
       </c>
       <c r="C2">
-        <v>0.5420222177708354</v>
+        <v>0.5805494889474119</v>
       </c>
       <c r="D2">
-        <v>0.07151303169266754</v>
+        <v>0.07839449666683862</v>
       </c>
       <c r="E2">
-        <v>0.04634917639688574</v>
+        <v>0.04894041518672498</v>
       </c>
       <c r="F2">
-        <v>0.7148108766622414</v>
+        <v>0.6477007131597929</v>
       </c>
       <c r="G2">
-        <v>0.000815163384072192</v>
+        <v>0.007842484183421761</v>
       </c>
       <c r="H2">
-        <v>0.003401996042401101</v>
+        <v>0.001757715071970312</v>
       </c>
       <c r="I2">
-        <v>0.004001444747599781</v>
+        <v>0.001950101914044211</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.346862048658565</v>
+        <v>0.2979912500021236</v>
       </c>
       <c r="L2">
-        <v>0.05928520042174479</v>
+        <v>0.1475793468578264</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08176169660022126</v>
       </c>
       <c r="N2">
-        <v>0.3568496521254048</v>
+        <v>0.06075940972604177</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3747648957327669</v>
       </c>
       <c r="Q2">
-        <v>1.786571879603287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.5717147760069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.941610419743938</v>
+        <v>2.952082213901861</v>
       </c>
       <c r="C3">
-        <v>0.4804123600387413</v>
+        <v>0.5114164626191382</v>
       </c>
       <c r="D3">
-        <v>0.06551870467333742</v>
+        <v>0.07264351318957551</v>
       </c>
       <c r="E3">
-        <v>0.0445640516286776</v>
+        <v>0.04772079102960447</v>
       </c>
       <c r="F3">
-        <v>0.6948212580753861</v>
+        <v>0.6287641026181561</v>
       </c>
       <c r="G3">
-        <v>0.0008184615743887947</v>
+        <v>0.01070806849064382</v>
       </c>
       <c r="H3">
-        <v>0.005261477361593381</v>
+        <v>0.002946285639626178</v>
       </c>
       <c r="I3">
-        <v>0.005857280337974835</v>
+        <v>0.002928527596771868</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3563966055367693</v>
+        <v>0.3067346909052358</v>
       </c>
       <c r="L3">
-        <v>0.0576188259039585</v>
+        <v>0.1534352370183836</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08381139525700387</v>
       </c>
       <c r="N3">
-        <v>0.3155264458670217</v>
+        <v>0.05952514735817049</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.331149939735127</v>
       </c>
       <c r="Q3">
-        <v>1.752024671943573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.537006209094613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.675758088826512</v>
+        <v>2.685328049506097</v>
       </c>
       <c r="C4">
-        <v>0.442775303736795</v>
+        <v>0.4693002362556058</v>
       </c>
       <c r="D4">
-        <v>0.0618603063357881</v>
+        <v>0.06915293872080497</v>
       </c>
       <c r="E4">
-        <v>0.04345339697810413</v>
+        <v>0.04696076496852797</v>
       </c>
       <c r="F4">
-        <v>0.6832290110739407</v>
+        <v>0.6175098991200301</v>
       </c>
       <c r="G4">
-        <v>0.0008205587977425655</v>
+        <v>0.01275975257782841</v>
       </c>
       <c r="H4">
-        <v>0.006653454703243328</v>
+        <v>0.003861350198701763</v>
       </c>
       <c r="I4">
-        <v>0.00726862261952288</v>
+        <v>0.003722784782603572</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3626736381996487</v>
+        <v>0.3123607413780984</v>
       </c>
       <c r="L4">
-        <v>0.05656162954937516</v>
+        <v>0.1571877903806662</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08561822325693758</v>
       </c>
       <c r="N4">
-        <v>0.2902473966189945</v>
+        <v>0.05873804818752504</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3044952041986733</v>
       </c>
       <c r="Q4">
-        <v>1.732882400158829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.516715936641233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.567300674061471</v>
+        <v>2.576447814501307</v>
       </c>
       <c r="C5">
-        <v>0.4282030534131991</v>
+        <v>0.4529386781460119</v>
       </c>
       <c r="D5">
-        <v>0.06040728160199649</v>
+        <v>0.06777325167735881</v>
       </c>
       <c r="E5">
-        <v>0.04297862218470527</v>
+        <v>0.04663104597733447</v>
       </c>
       <c r="F5">
-        <v>0.6780074647246082</v>
+        <v>0.6123901156189575</v>
       </c>
       <c r="G5">
-        <v>0.0008214363915085454</v>
+        <v>0.01367130361832769</v>
       </c>
       <c r="H5">
-        <v>0.007284052150211884</v>
+        <v>0.004280995656095188</v>
       </c>
       <c r="I5">
-        <v>0.00798996360154236</v>
+        <v>0.004182945026824036</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3649582370259079</v>
+        <v>0.3143789890836928</v>
       </c>
       <c r="L5">
-        <v>0.0561034626786332</v>
+        <v>0.1585782178637203</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08641545466335732</v>
       </c>
       <c r="N5">
-        <v>0.2802063482963177</v>
+        <v>0.05839419760258369</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2938974245614929</v>
       </c>
       <c r="Q5">
-        <v>1.723634576698174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.506873501601092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549275575060449</v>
+        <v>2.558344906489822</v>
       </c>
       <c r="C6">
-        <v>0.4266718235367648</v>
+        <v>0.4511126453091663</v>
       </c>
       <c r="D6">
-        <v>0.06020639140610484</v>
+        <v>0.06758503899353485</v>
       </c>
       <c r="E6">
-        <v>0.04287722425803953</v>
+        <v>0.04655526115658404</v>
       </c>
       <c r="F6">
-        <v>0.6763417103721991</v>
+        <v>0.6107850437248104</v>
       </c>
       <c r="G6">
-        <v>0.000821588815291187</v>
+        <v>0.01383302388875207</v>
       </c>
       <c r="H6">
-        <v>0.007396208044951447</v>
+        <v>0.004356007714370669</v>
       </c>
       <c r="I6">
-        <v>0.008219803909473633</v>
+        <v>0.004380952958618067</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3648850182664383</v>
+        <v>0.3143075487857718</v>
       </c>
       <c r="L6">
-        <v>0.05600438982562506</v>
+        <v>0.1585950444391724</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08646361773247957</v>
       </c>
       <c r="N6">
-        <v>0.278834175466443</v>
+        <v>0.05831779902132916</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2924277059879472</v>
       </c>
       <c r="Q6">
-        <v>1.71975291980722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.503036317747529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.674269778120106</v>
+        <v>2.683774160654536</v>
       </c>
       <c r="C7">
-        <v>0.4450053087458912</v>
+        <v>0.4699417436979729</v>
       </c>
       <c r="D7">
-        <v>0.06195031009279717</v>
+        <v>0.06970182778407974</v>
       </c>
       <c r="E7">
-        <v>0.04338624789411671</v>
+        <v>0.04694213026425853</v>
       </c>
       <c r="F7">
-        <v>0.6809519195605063</v>
+        <v>0.6118924041988123</v>
       </c>
       <c r="G7">
-        <v>0.0008205854898646467</v>
+        <v>0.0131442917953084</v>
       </c>
       <c r="H7">
-        <v>0.006671511099339028</v>
+        <v>0.003885713959656256</v>
       </c>
       <c r="I7">
-        <v>0.007551319264856637</v>
+        <v>0.004047113579201067</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3614550037511233</v>
+        <v>0.3099322088284762</v>
       </c>
       <c r="L7">
-        <v>0.0564947006652079</v>
+        <v>0.1559443887166871</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08504143946438258</v>
       </c>
       <c r="N7">
-        <v>0.2909162694556215</v>
+        <v>0.0586349512449762</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3050535689770726</v>
       </c>
       <c r="Q7">
-        <v>1.726274044550721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.499678004225487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.224907724118168</v>
+        <v>3.23594967348464</v>
       </c>
       <c r="C8">
-        <v>0.5239818428777028</v>
+        <v>0.5546218906370655</v>
       </c>
       <c r="D8">
-        <v>0.06958705296641199</v>
+        <v>0.07808851230736735</v>
       </c>
       <c r="E8">
-        <v>0.04565699526908329</v>
+        <v>0.04859343194847909</v>
       </c>
       <c r="F8">
-        <v>0.7048643175449811</v>
+        <v>0.6269606886957249</v>
       </c>
       <c r="G8">
-        <v>0.000816304161348913</v>
+        <v>0.01063224854890166</v>
       </c>
       <c r="H8">
-        <v>0.003998854410964536</v>
+        <v>0.002162122868606953</v>
       </c>
       <c r="I8">
-        <v>0.004908585450001723</v>
+        <v>0.002642982661551052</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3484281922860397</v>
+        <v>0.2952339263040784</v>
       </c>
       <c r="L8">
-        <v>0.05863976095211942</v>
+        <v>0.1469003187793732</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08071158499716446</v>
       </c>
       <c r="N8">
-        <v>0.3436517343709795</v>
+        <v>0.06012792971455005</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3604538420022152</v>
       </c>
       <c r="Q8">
-        <v>1.765676994183252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.516058271016888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.302479437813702</v>
+        <v>4.314630637249763</v>
       </c>
       <c r="C9">
-        <v>0.6762419096771737</v>
+        <v>0.7247698800542253</v>
       </c>
       <c r="D9">
-        <v>0.08456497383967587</v>
+        <v>0.09299861903586049</v>
       </c>
       <c r="E9">
-        <v>0.05011315205817013</v>
+        <v>0.05169074231303306</v>
       </c>
       <c r="F9">
-        <v>0.7614565645346119</v>
+        <v>0.6759168498349837</v>
       </c>
       <c r="G9">
-        <v>0.0008084451426919493</v>
+        <v>0.005391821995845092</v>
       </c>
       <c r="H9">
-        <v>0.0008621066255620757</v>
+        <v>0.0002938076161342895</v>
       </c>
       <c r="I9">
-        <v>0.001618390469608322</v>
+        <v>0.001011074173414173</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3286045400370377</v>
+        <v>0.2753006517303938</v>
       </c>
       <c r="L9">
-        <v>0.06269499006670198</v>
+        <v>0.1337985403304689</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07833590184633721</v>
       </c>
       <c r="N9">
-        <v>0.446508171259083</v>
+        <v>0.06308617729879817</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4690984468035282</v>
       </c>
       <c r="Q9">
-        <v>1.87203821801134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.606743210888169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.093680251223873</v>
+        <v>5.104536065366801</v>
       </c>
       <c r="C10">
-        <v>0.7956677209210739</v>
+        <v>0.8472044882586829</v>
       </c>
       <c r="D10">
-        <v>0.09442701468746861</v>
+        <v>0.105588527195529</v>
       </c>
       <c r="E10">
-        <v>0.05201622286193341</v>
+        <v>0.05294073104865227</v>
       </c>
       <c r="F10">
-        <v>0.7938008525601674</v>
+        <v>0.6833686695666188</v>
       </c>
       <c r="G10">
-        <v>0.0008030887328267758</v>
+        <v>0.01072974418791084</v>
       </c>
       <c r="H10">
-        <v>0.0002362550416208364</v>
+        <v>0.0001902546254575199</v>
       </c>
       <c r="I10">
-        <v>0.0009520815510475344</v>
+        <v>0.001097611669123921</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3111494613453267</v>
+        <v>0.251508843861906</v>
       </c>
       <c r="L10">
-        <v>0.0651151854436367</v>
+        <v>0.1212769481008795</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07504191644436631</v>
       </c>
       <c r="N10">
-        <v>0.5114617930622103</v>
+        <v>0.06475817695829944</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5371185013949429</v>
       </c>
       <c r="Q10">
-        <v>1.929433661118907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.592341612035455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.450707707467984</v>
+        <v>5.460131421687777</v>
       </c>
       <c r="C11">
-        <v>0.8985761539949237</v>
+        <v>0.9240790119208668</v>
       </c>
       <c r="D11">
-        <v>0.08757687312710516</v>
+        <v>0.103596966606176</v>
       </c>
       <c r="E11">
-        <v>0.04396297625477885</v>
+        <v>0.04525172635831343</v>
       </c>
       <c r="F11">
-        <v>0.7034702607002359</v>
+        <v>0.5690361490284559</v>
       </c>
       <c r="G11">
-        <v>0.0008014257220999497</v>
+        <v>0.0444733926967622</v>
       </c>
       <c r="H11">
-        <v>0.01877749032502507</v>
+        <v>0.01875463347220929</v>
       </c>
       <c r="I11">
-        <v>0.001430918283012339</v>
+        <v>0.001804758763398695</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2647389534647715</v>
+        <v>0.205656832785726</v>
       </c>
       <c r="L11">
-        <v>0.06863198159316042</v>
+        <v>0.1045672293056823</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05855476140286342</v>
       </c>
       <c r="N11">
-        <v>0.4436032057140409</v>
+        <v>0.06988242820766999</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4638481191384187</v>
       </c>
       <c r="Q11">
-        <v>1.697443824086889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.288314329979315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.584773099314134</v>
+        <v>5.593732419293588</v>
       </c>
       <c r="C12">
-        <v>0.9586792385203182</v>
+        <v>0.9660853934726106</v>
       </c>
       <c r="D12">
-        <v>0.07981150051464425</v>
+        <v>0.09728116268008336</v>
       </c>
       <c r="E12">
-        <v>0.04007846207548216</v>
+        <v>0.04127587850233594</v>
       </c>
       <c r="F12">
-        <v>0.6273706365038194</v>
+        <v>0.4918951678061134</v>
       </c>
       <c r="G12">
-        <v>0.0008010472109114127</v>
+        <v>0.06888707970637853</v>
       </c>
       <c r="H12">
-        <v>0.05745541581659097</v>
+        <v>0.05741927598023722</v>
       </c>
       <c r="I12">
-        <v>0.001429964303751419</v>
+        <v>0.001820452386260385</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2349911370946653</v>
+        <v>0.1827817438333028</v>
       </c>
       <c r="L12">
-        <v>0.07905816841206459</v>
+        <v>0.09726935595358732</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04914417721198738</v>
       </c>
       <c r="N12">
-        <v>0.3760960568372553</v>
+        <v>0.08170372151128902</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3919543054031465</v>
       </c>
       <c r="Q12">
-        <v>1.508580025181431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.097149473804393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.553592147088807</v>
+        <v>5.562999384592047</v>
       </c>
       <c r="C13">
-        <v>0.9925523787049997</v>
+        <v>0.9921213491143135</v>
       </c>
       <c r="D13">
-        <v>0.07110899840211005</v>
+        <v>0.08659326401628675</v>
       </c>
       <c r="E13">
-        <v>0.03902959446560139</v>
+        <v>0.04003188900232457</v>
       </c>
       <c r="F13">
-        <v>0.5542875695132636</v>
+        <v>0.4383085928664556</v>
       </c>
       <c r="G13">
-        <v>0.0008016579833643282</v>
+        <v>0.0631440287432099</v>
       </c>
       <c r="H13">
-        <v>0.1132363274675185</v>
+        <v>0.113152969656781</v>
       </c>
       <c r="I13">
-        <v>0.001389899763353242</v>
+        <v>0.001729685930262015</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2141315393086565</v>
+        <v>0.1726940932585768</v>
       </c>
       <c r="L13">
-        <v>0.09503586381877938</v>
+        <v>0.09447798831353982</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04411526565046309</v>
       </c>
       <c r="N13">
-        <v>0.3066777971874473</v>
+        <v>0.0987127799875509</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.318798148866847</v>
       </c>
       <c r="Q13">
-        <v>1.331289058698289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9784748348720029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.456868396054915</v>
+        <v>5.466935158810372</v>
       </c>
       <c r="C14">
-        <v>1.005238523705145</v>
+        <v>1.003963292463681</v>
       </c>
       <c r="D14">
-        <v>0.06471822775552738</v>
+        <v>0.07759625195696884</v>
       </c>
       <c r="E14">
-        <v>0.03998269585432102</v>
+        <v>0.04095163273507207</v>
       </c>
       <c r="F14">
-        <v>0.5049048214468783</v>
+        <v>0.4094187142522898</v>
       </c>
       <c r="G14">
-        <v>0.0008025341472010128</v>
+        <v>0.04661404453235818</v>
       </c>
       <c r="H14">
-        <v>0.1626311561220604</v>
+        <v>0.1624908248532222</v>
       </c>
       <c r="I14">
-        <v>0.001449460518813339</v>
+        <v>0.001726547874452145</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2039077722077849</v>
+        <v>0.170181410111629</v>
       </c>
       <c r="L14">
-        <v>0.1096312600674523</v>
+        <v>0.09390229374547099</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04231814569327774</v>
       </c>
       <c r="N14">
-        <v>0.2585407553124668</v>
+        <v>0.1136729386872446</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2683535453237056</v>
       </c>
       <c r="Q14">
-        <v>1.21318571469844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9214551068654941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.398057959725861</v>
+        <v>5.408439245633758</v>
       </c>
       <c r="C15">
-        <v>1.003472367848445</v>
+        <v>1.004062708365808</v>
       </c>
       <c r="D15">
-        <v>0.06297473987830671</v>
+        <v>0.07473137171516697</v>
       </c>
       <c r="E15">
-        <v>0.04039379074907412</v>
+        <v>0.04143532078529155</v>
       </c>
       <c r="F15">
-        <v>0.4925158762139787</v>
+        <v>0.4050302502600829</v>
       </c>
       <c r="G15">
-        <v>0.000802974260749978</v>
+        <v>0.03825023780829184</v>
       </c>
       <c r="H15">
-        <v>0.1751707850051503</v>
+        <v>0.1749984218146636</v>
       </c>
       <c r="I15">
-        <v>0.001587715196375683</v>
+        <v>0.001847589786591719</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2025833368357377</v>
+        <v>0.170951106770306</v>
       </c>
       <c r="L15">
-        <v>0.1133609249763055</v>
+        <v>0.09414582343030747</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04239071693238472</v>
       </c>
       <c r="N15">
-        <v>0.2461313524377431</v>
+        <v>0.1174046332887357</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2554306775120807</v>
       </c>
       <c r="Q15">
-        <v>1.184066902686951</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9161000178878709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.062699249510047</v>
+        <v>5.074387770410681</v>
       </c>
       <c r="C16">
-        <v>0.9450978267554149</v>
+        <v>0.9628630244221199</v>
       </c>
       <c r="D16">
-        <v>0.06077599553006507</v>
+        <v>0.06844718520419235</v>
       </c>
       <c r="E16">
-        <v>0.03974242596954447</v>
+        <v>0.04144610959898642</v>
       </c>
       <c r="F16">
-        <v>0.4926174835811779</v>
+        <v>0.4313519705261157</v>
       </c>
       <c r="G16">
-        <v>0.0008051467332205053</v>
+        <v>0.01042102202062267</v>
       </c>
       <c r="H16">
-        <v>0.1626610668136834</v>
+        <v>0.1622753202745173</v>
       </c>
       <c r="I16">
-        <v>0.001896839970690678</v>
+        <v>0.001930210073012084</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2130473096775942</v>
+        <v>0.1842798660983274</v>
       </c>
       <c r="L16">
-        <v>0.1084912793977821</v>
+        <v>0.09822650254241783</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04706234352656047</v>
       </c>
       <c r="N16">
-        <v>0.2347339729158762</v>
+        <v>0.112186539027384</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2442127650660524</v>
       </c>
       <c r="Q16">
-        <v>1.191677228732161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.001324995456372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.85753933302243</v>
+        <v>4.869728472249051</v>
       </c>
       <c r="C17">
-        <v>0.8938581713646272</v>
+        <v>0.9220037488160813</v>
       </c>
       <c r="D17">
-        <v>0.06242727806547776</v>
+        <v>0.06871633496246687</v>
       </c>
       <c r="E17">
-        <v>0.03845623197681247</v>
+        <v>0.0404718079158477</v>
       </c>
       <c r="F17">
-        <v>0.518492827755523</v>
+        <v>0.4651172728260775</v>
       </c>
       <c r="G17">
-        <v>0.000806353186048579</v>
+        <v>0.004721341318507655</v>
       </c>
       <c r="H17">
-        <v>0.1250666800035418</v>
+        <v>0.124531905449345</v>
       </c>
       <c r="I17">
-        <v>0.002161649945275457</v>
+        <v>0.002039877573639437</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2262581515356832</v>
+        <v>0.1967928573895597</v>
       </c>
       <c r="L17">
-        <v>0.09642511801090592</v>
+        <v>0.1025440755129265</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05152918687615404</v>
       </c>
       <c r="N17">
-        <v>0.2508113392053133</v>
+        <v>0.09989917148596561</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2615434406935719</v>
       </c>
       <c r="Q17">
-        <v>1.259332896778872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.092472502416328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.74038223085148</v>
+        <v>4.752725858222618</v>
       </c>
       <c r="C18">
-        <v>0.8414172025483424</v>
+        <v>0.8790193650353615</v>
       </c>
       <c r="D18">
-        <v>0.06767983795091936</v>
+        <v>0.07371771700866248</v>
       </c>
       <c r="E18">
-        <v>0.03804915638588946</v>
+        <v>0.04007372405679521</v>
       </c>
       <c r="F18">
-        <v>0.57292269795132</v>
+        <v>0.5176382450599348</v>
       </c>
       <c r="G18">
-        <v>0.0008068087931985474</v>
+        <v>0.003446266055014302</v>
       </c>
       <c r="H18">
-        <v>0.07231044699786793</v>
+        <v>0.07172626921181546</v>
       </c>
       <c r="I18">
-        <v>0.002024677142581588</v>
+        <v>0.001794285705158494</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2458462140246702</v>
+        <v>0.2129265005703793</v>
       </c>
       <c r="L18">
-        <v>0.08039516768759469</v>
+        <v>0.1084999096213011</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05743728975426521</v>
       </c>
       <c r="N18">
-        <v>0.2945324506807054</v>
+        <v>0.08350382079520813</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3079536328332466</v>
       </c>
       <c r="Q18">
-        <v>1.395491697339011</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.22300807705102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.701973819058367</v>
+        <v>4.714274871070813</v>
       </c>
       <c r="C19">
-        <v>0.7983178197638949</v>
+        <v>0.8451434613535582</v>
       </c>
       <c r="D19">
-        <v>0.07594299259655912</v>
+        <v>0.08234277483167318</v>
       </c>
       <c r="E19">
-        <v>0.04067851989359905</v>
+        <v>0.04242989199793801</v>
       </c>
       <c r="F19">
-        <v>0.6466923536447169</v>
+        <v>0.5833722381518527</v>
       </c>
       <c r="G19">
-        <v>0.0008065959619609764</v>
+        <v>0.003061176699373558</v>
       </c>
       <c r="H19">
-        <v>0.0269510627020324</v>
+        <v>0.02644075113691002</v>
       </c>
       <c r="I19">
-        <v>0.002094551810765566</v>
+        <v>0.001922888978700854</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2708488391159385</v>
+        <v>0.2322473821452622</v>
       </c>
       <c r="L19">
-        <v>0.06798836802621366</v>
+        <v>0.1157513765652904</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06469798195793253</v>
       </c>
       <c r="N19">
-        <v>0.3629534498310676</v>
+        <v>0.0702983421818395</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3804023955311493</v>
       </c>
       <c r="Q19">
-        <v>1.576377369878088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.38024630100395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.885712640557472</v>
+        <v>4.897332281729348</v>
       </c>
       <c r="C20">
-        <v>0.7722687965567445</v>
+        <v>0.8289960347239287</v>
       </c>
       <c r="D20">
-        <v>0.09211679156673824</v>
+        <v>0.1008339767081523</v>
       </c>
       <c r="E20">
-        <v>0.05128341341563747</v>
+        <v>0.05223617323313512</v>
       </c>
       <c r="F20">
-        <v>0.7777611363024732</v>
+        <v>0.6866359522564807</v>
       </c>
       <c r="G20">
-        <v>0.0008045148923446284</v>
+        <v>0.004348449948607502</v>
       </c>
       <c r="H20">
-        <v>0.0002865988179956425</v>
+        <v>0.0001278355667784226</v>
       </c>
       <c r="I20">
-        <v>0.001813458581496619</v>
+        <v>0.001943593483951567</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3116901317232035</v>
+        <v>0.2586196923537187</v>
       </c>
       <c r="L20">
-        <v>0.06431056918675038</v>
+        <v>0.1247701974553781</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07619091021241431</v>
       </c>
       <c r="N20">
-        <v>0.4964190911009325</v>
+        <v>0.0643407608151656</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5215422595264982</v>
       </c>
       <c r="Q20">
-        <v>1.892450980392738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.613855578453951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.493661252237985</v>
+        <v>5.502061545489482</v>
       </c>
       <c r="C21">
-        <v>0.8553840582213184</v>
+        <v>0.8848446092611368</v>
       </c>
       <c r="D21">
-        <v>0.1017666383743432</v>
+        <v>0.1224083502317228</v>
       </c>
       <c r="E21">
-        <v>0.05477698940365272</v>
+        <v>0.05610438061707335</v>
       </c>
       <c r="F21">
-        <v>0.824358077989551</v>
+        <v>0.648928902820316</v>
       </c>
       <c r="G21">
-        <v>0.0008003583582510345</v>
+        <v>0.06546090324140863</v>
       </c>
       <c r="H21">
-        <v>3.08763745304752E-05</v>
+        <v>0.0001282471677950259</v>
       </c>
       <c r="I21">
-        <v>0.00168129679143636</v>
+        <v>0.002164024361767325</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3072006904229028</v>
+        <v>0.2266265136005128</v>
       </c>
       <c r="L21">
-        <v>0.06678053490264702</v>
+        <v>0.1112150858884213</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.06802438526108645</v>
       </c>
       <c r="N21">
-        <v>0.5642705219119364</v>
+        <v>0.06517749514107196</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5910479258650838</v>
       </c>
       <c r="Q21">
-        <v>1.991520965077797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.45932671467682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.891328892345939</v>
+        <v>5.897104331605249</v>
       </c>
       <c r="C22">
-        <v>0.9092890437117092</v>
+        <v>0.9179285209260968</v>
       </c>
       <c r="D22">
-        <v>0.1072788320149414</v>
+        <v>0.1371244097859403</v>
       </c>
       <c r="E22">
-        <v>0.05647476721091849</v>
+        <v>0.05829577912064465</v>
       </c>
       <c r="F22">
-        <v>0.8523370003005795</v>
+        <v>0.6186157518907223</v>
       </c>
       <c r="G22">
-        <v>0.0007977262001727712</v>
+        <v>0.1544081934354153</v>
       </c>
       <c r="H22">
-        <v>0.0002864669538533704</v>
+        <v>0.0004068603823454975</v>
       </c>
       <c r="I22">
-        <v>0.001649149876560507</v>
+        <v>0.002134681469719624</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3039302914173767</v>
+        <v>0.2056703139287936</v>
       </c>
       <c r="L22">
-        <v>0.06824773367453951</v>
+        <v>0.1032266257918391</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.06222600308042736</v>
       </c>
       <c r="N22">
-        <v>0.6017496466184724</v>
+        <v>0.06572099177695989</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6290858122326313</v>
       </c>
       <c r="Q22">
-        <v>2.052086299054224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.347298218075338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.679115106480481</v>
+        <v>5.686506607835611</v>
       </c>
       <c r="C23">
-        <v>0.8774881427567038</v>
+        <v>0.9015646775182233</v>
       </c>
       <c r="D23">
-        <v>0.1042008034309347</v>
+        <v>0.1276331800279422</v>
       </c>
       <c r="E23">
-        <v>0.05563774853447789</v>
+        <v>0.0570239936931074</v>
       </c>
       <c r="F23">
-        <v>0.8398724694098547</v>
+        <v>0.6450174013170482</v>
       </c>
       <c r="G23">
-        <v>0.0007991131426823715</v>
+        <v>0.08858800774123665</v>
       </c>
       <c r="H23">
-        <v>0.0001194570203089107</v>
+        <v>0.0002447637961988658</v>
       </c>
       <c r="I23">
-        <v>0.001330248804358725</v>
+        <v>0.001774168265064269</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3070133144645695</v>
+        <v>0.220151964941433</v>
       </c>
       <c r="L23">
-        <v>0.06752843496604743</v>
+        <v>0.1084230711484473</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.06683535746128477</v>
       </c>
       <c r="N23">
-        <v>0.5807490896544323</v>
+        <v>0.06554039713022797</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6080576332461902</v>
       </c>
       <c r="Q23">
-        <v>2.026973882588862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.436929803646848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.876150188775284</v>
+        <v>4.887777060967665</v>
       </c>
       <c r="C24">
-        <v>0.7625056806068926</v>
+        <v>0.8201582534697138</v>
       </c>
       <c r="D24">
-        <v>0.09283051390947605</v>
+        <v>0.1015277413219522</v>
       </c>
       <c r="E24">
-        <v>0.0523567434867207</v>
+        <v>0.05324606837953816</v>
       </c>
       <c r="F24">
-        <v>0.7905796048801008</v>
+        <v>0.6984763654650692</v>
       </c>
       <c r="G24">
-        <v>0.0008044933795960914</v>
+        <v>0.004150898849331952</v>
       </c>
       <c r="H24">
-        <v>0.0001514042330339471</v>
+        <v>5.910818866361467E-06</v>
       </c>
       <c r="I24">
-        <v>0.001312696158932702</v>
+        <v>0.001351650339048049</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3176039124484831</v>
+        <v>0.2634284893588692</v>
       </c>
       <c r="L24">
-        <v>0.06467464915797105</v>
+        <v>0.1265537024687262</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07800953707929992</v>
       </c>
       <c r="N24">
-        <v>0.5031624883374093</v>
+        <v>0.06449823862316606</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5288312425651611</v>
       </c>
       <c r="Q24">
-        <v>1.926019022431035</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.644407830431248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.011001468198913</v>
+        <v>4.023206395345937</v>
       </c>
       <c r="C25">
-        <v>0.6393224448387969</v>
+        <v>0.6852665068975625</v>
       </c>
       <c r="D25">
-        <v>0.08068871888033158</v>
+        <v>0.08845861137152156</v>
       </c>
       <c r="E25">
-        <v>0.04880974772786573</v>
+        <v>0.05069803132114359</v>
       </c>
       <c r="F25">
-        <v>0.7415259180781604</v>
+        <v>0.6635236462769356</v>
       </c>
       <c r="G25">
-        <v>0.0008105356861524436</v>
+        <v>0.005484927703236497</v>
       </c>
       <c r="H25">
-        <v>0.00147221185864399</v>
+        <v>0.0006160330698201655</v>
       </c>
       <c r="I25">
-        <v>0.002691216677915165</v>
+        <v>0.001779802323490287</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3313816753371057</v>
+        <v>0.2803749331365708</v>
       </c>
       <c r="L25">
-        <v>0.06152192297665349</v>
+        <v>0.1371810479513034</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07846798852932935</v>
       </c>
       <c r="N25">
-        <v>0.4200426786088514</v>
+        <v>0.06229462541644271</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4411570596045635</v>
       </c>
       <c r="Q25">
-        <v>1.829637000351141</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.585751145984517</v>
       </c>
     </row>
   </sheetData>
